--- a/files/system/import-paints-sample.xlsx
+++ b/files/system/import-paints-sample.xlsx
@@ -20,117 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS Code</t>
+  </si>
   <si>
     <t xml:space="preserve">Is Critical</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Article number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HS Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom app development</t>
+    <t xml:space="preserve">Paint Item1</t>
   </si>
   <si>
     <t xml:space="preserve">Manufacturer 1</t>
   </si>
   <si>
-    <t xml:space="preserve">BAR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Barrel</t>
   </si>
   <si>
-    <t xml:space="preserve">App for your business</t>
-  </si>
-  <si>
     <t xml:space="preserve">a123</t>
   </si>
   <si>
-    <t xml:space="preserve">Website Design</t>
+    <t xml:space="preserve">Paint Item2</t>
   </si>
   <si>
     <t xml:space="preserve">Manufacturer 2</t>
   </si>
   <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bag</t>
   </si>
   <si>
-    <t xml:space="preserve">Design your custom website templates.</t>
-  </si>
-  <si>
     <t xml:space="preserve">a124</t>
   </si>
   <si>
-    <t xml:space="preserve">Slack Integration </t>
+    <t xml:space="preserve">Paint Item3</t>
   </si>
   <si>
     <t xml:space="preserve">Manufacturer 3</t>
   </si>
   <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bottle</t>
   </si>
   <si>
-    <t xml:space="preserve">Integrate Slack into website.</t>
-  </si>
-  <si>
     <t xml:space="preserve">a125</t>
   </si>
   <si>
-    <t xml:space="preserve">Apple MacBook Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
+    <t xml:space="preserve">Paint Item4</t>
   </si>
   <si>
     <t xml:space="preserve">Can</t>
   </si>
   <si>
-    <t xml:space="preserve">Apple M1 Chip, 13” Retina Display, 8GB RAM, 256GB SSD Storage, Backlit Keyboard, FaceTime HD Camera, Touch ID.</t>
-  </si>
-  <si>
     <t xml:space="preserve">a126</t>
   </si>
   <si>
-    <t xml:space="preserve">Dell Inspiron 3510 Laptop</t>
+    <t xml:space="preserve">Paint Item5</t>
   </si>
   <si>
     <t xml:space="preserve">Manufacturer 4</t>
   </si>
   <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6" HD Display, Intel Celeron N4020 Processor, 16GB DDR4 RAM, 1TB Hard Disk Drive, Webcam, WiFi, HDMI, Bluetooth, Windows 10 Home, Black</t>
   </si>
   <si>
     <t xml:space="preserve">a127</t>
@@ -237,32 +204,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -357,20 +324,20 @@
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="28.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="17.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="9" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,28 +347,26 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
       <c r="AMD1" s="0"/>
       <c r="AME1" s="0"/>
       <c r="AMF1" s="0"/>
@@ -411,148 +376,123 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="n">
+        <v>125</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="n">
-        <v>123</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>1000</v>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="n">
+        <v>126</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>304</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="n">
+        <v>127</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>305</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>124</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>125</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>126</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>127</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>529</v>
       </c>
     </row>
   </sheetData>
